--- a/SchedulingData/dynamic9/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>202.22</v>
+        <v>212.82</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1</v>
+        <v>281.54</v>
       </c>
       <c r="E2" t="n">
-        <v>12.38</v>
+        <v>11.516</v>
       </c>
     </row>
     <row r="3">
@@ -485,302 +485,321 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>240.44</v>
+        <v>281.54</v>
       </c>
       <c r="D3" t="n">
-        <v>290.08</v>
+        <v>324.54</v>
       </c>
       <c r="E3" t="n">
-        <v>14.112</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>207.22</v>
+        <v>215.48</v>
       </c>
       <c r="D4" t="n">
-        <v>279.92</v>
+        <v>263.98</v>
       </c>
       <c r="E4" t="n">
-        <v>11.668</v>
+        <v>12.792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>276.1</v>
+        <v>210.32</v>
       </c>
       <c r="D5" t="n">
-        <v>319.86</v>
+        <v>276.78</v>
       </c>
       <c r="E5" t="n">
-        <v>9.624000000000001</v>
+        <v>13.872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>290.08</v>
+        <v>216.5</v>
       </c>
       <c r="D6" t="n">
-        <v>345.38</v>
+        <v>252</v>
       </c>
       <c r="E6" t="n">
-        <v>10.212</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D7" t="n">
-        <v>323.96</v>
+        <v>322.32</v>
       </c>
       <c r="E7" t="n">
-        <v>14.564</v>
+        <v>11.428</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>319.86</v>
+        <v>324.54</v>
       </c>
       <c r="D8" t="n">
-        <v>387.9</v>
+        <v>378.82</v>
       </c>
       <c r="E8" t="n">
-        <v>6.92</v>
+        <v>6.548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>239.62</v>
+        <v>202.28</v>
       </c>
       <c r="D9" t="n">
-        <v>300.98</v>
+        <v>266.18</v>
       </c>
       <c r="E9" t="n">
-        <v>8.712</v>
+        <v>11.092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>279.92</v>
+        <v>263.98</v>
       </c>
       <c r="D10" t="n">
-        <v>334.62</v>
+        <v>321.38</v>
       </c>
       <c r="E10" t="n">
-        <v>8.808</v>
+        <v>7.692</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>334.62</v>
+        <v>266.18</v>
       </c>
       <c r="D11" t="n">
-        <v>385.4</v>
+        <v>338.08</v>
       </c>
       <c r="E11" t="n">
-        <v>5.84</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>300.98</v>
+        <v>321.38</v>
       </c>
       <c r="D12" t="n">
-        <v>359.18</v>
+        <v>363.5</v>
       </c>
       <c r="E12" t="n">
-        <v>6.472</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>359.18</v>
+        <v>227.68</v>
       </c>
       <c r="D13" t="n">
-        <v>404.6</v>
+        <v>280.98</v>
       </c>
       <c r="E13" t="n">
-        <v>3.56</v>
+        <v>14.512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>238.96</v>
+        <v>338.08</v>
       </c>
       <c r="D14" t="n">
-        <v>321.66</v>
+        <v>382.98</v>
       </c>
       <c r="E14" t="n">
-        <v>12.024</v>
+        <v>5.172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>323.96</v>
+        <v>276.78</v>
       </c>
       <c r="D15" t="n">
-        <v>370.76</v>
+        <v>329.34</v>
       </c>
       <c r="E15" t="n">
-        <v>11.504</v>
+        <v>10.736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>345.38</v>
+        <v>329.34</v>
       </c>
       <c r="D16" t="n">
-        <v>394.66</v>
+        <v>372.58</v>
       </c>
       <c r="E16" t="n">
-        <v>7.404</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>370.76</v>
+        <v>280.98</v>
       </c>
       <c r="D17" t="n">
-        <v>427.58</v>
+        <v>329.44</v>
       </c>
       <c r="E17" t="n">
-        <v>8.912000000000001</v>
+        <v>11.776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>394.66</v>
+        <v>329.44</v>
       </c>
       <c r="D18" t="n">
-        <v>442.46</v>
+        <v>383.3</v>
       </c>
       <c r="E18" t="n">
-        <v>5.244</v>
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pond28</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>322.32</v>
+      </c>
+      <c r="D19" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8.460000000000001</v>
       </c>
     </row>
   </sheetData>
